--- a/data/trans_dic/P16B18-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B18-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,81%</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>64,51; 95,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>77,72; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>64,51; 95,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>77,72; 100,0</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,29%</t>
         </is>
       </c>
     </row>
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>90,86; 98,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>93,74; 99,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>94,34; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>90,86; 98,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>93,74; 99,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>94,34; 100,0</t>
         </is>
       </c>
     </row>
@@ -867,32 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,17%</t>
         </is>
       </c>
     </row>
@@ -920,32 +920,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>76,94; 93,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>72,88; 96,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>76,94; 93,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>72,88; 96,76</t>
         </is>
       </c>
     </row>
@@ -977,32 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,77%</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1030,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>87,34; 94,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>95,97; 99,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>91,84; 98,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>87,34; 94,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>95,97; 99,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>91,84; 98,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B18-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,51; 95,7</t>
+          <t>61,98; 95,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>77,72; 100,0</t>
+          <t>77,49; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,51; 95,7</t>
+          <t>61,98; 95,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>77,72; 100,0</t>
+          <t>77,49; 100,0</t>
         </is>
       </c>
     </row>
@@ -810,32 +811,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>90,86; 98,45</t>
+          <t>89,97; 98,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,74; 99,35</t>
+          <t>93,52; 99,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>94,34; 100,0</t>
+          <t>94,78; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,86; 98,45</t>
+          <t>89,97; 98,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,74; 99,35</t>
+          <t>93,52; 99,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94,34; 100,0</t>
+          <t>94,78; 100,0</t>
         </is>
       </c>
     </row>
@@ -920,7 +921,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,94; 93,58</t>
+          <t>77,01; 93,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,12 +931,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,88; 96,76</t>
+          <t>71,93; 96,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>76,94; 93,58</t>
+          <t>77,01; 93,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>72,88; 96,76</t>
+          <t>71,93; 96,79</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,34; 94,89</t>
+          <t>87,13; 94,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,97; 99,57</t>
+          <t>95,82; 99,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,84; 98,08</t>
+          <t>91,37; 98,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,34; 94,89</t>
+          <t>87,13; 94,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,97; 99,57</t>
+          <t>95,82; 99,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,84; 98,08</t>
+          <t>91,37; 98,14</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos anticonceptivos fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19594</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30654</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15038</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19594</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30654</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15038</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14640; 22614</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28768; 30654</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12291; 15861</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14640; 22614</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28768; 30654</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12291; 15861</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>123143</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>152267</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>100742</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>123143</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>152267</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>100742</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>116102; 126959</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>146075; 155201</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>97140; 102491</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>116102; 126959</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>146075; 155201</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>97140; 102491</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>53976</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>38144</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28192</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>53976</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38144</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28192</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>47829; 58196</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>36064; 38144</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22998; 30948</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>47829; 58196</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>36064; 38144</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22998; 30948</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>196712</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>221064</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>143972</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>196712</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>221064</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>143972</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>187128; 203992</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>215588; 223936</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>137347; 147528</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>187128; 203992</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>215588; 223936</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>137347; 147528</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>